--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1875.836445138593</v>
+        <v>186.7950950332234</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.88907212541224</v>
+        <v>56.79509503322339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.24776339128116</v>
+        <v>5.42779881720021</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.90513640446556</v>
+        <v>5.42779881720021</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1384.339999999996</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>442.9499999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.88634790002131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.11365209997869</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.85875413377281</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05891176602945</v>
+        <v>32.94108823397055</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.12809122220952</v>
+        <v>40.69357170702613</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.24776339128116</v>
+        <v>41.28655295097303</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.42779881720021</v>
+        <v>39.36141549125986</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
@@ -1096,76 +1096,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>169.55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>179.1700000000015</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>179.765</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>182.345</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>181.555</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.375</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.925</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.435</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.705</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.4099999999991</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1349999999991</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>162.7899999999991</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>152.0549999999991</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.4099999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1349999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>162.7899999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>152.0549999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>169.55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>179.1700000000015</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>179.765</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>182.345</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>181.555</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>108.515</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>96.92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>106.645</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>103.745</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>100.49</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.40999999999912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>49.13499999999914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>62.78999999999911</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>52.05499999999913</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>69.55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79.17000000000147</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>79.76500000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>82.345</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>81.55500000000001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.515000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1876,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.644999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>3.745000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4900000000000091</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2316,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2327,133 +2257,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
